--- a/FeedbackReport.xlsx
+++ b/FeedbackReport.xlsx
@@ -5,33 +5,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name=" Feedback Report " r:id="rId3" sheetId="1"/>
+    <sheet name=" Order Report " r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Feedback ID</t>
+    <t>Order ID</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Feedback Type</t>
-  </si>
-  <si>
-    <t>Reply</t>
-  </si>
-  <si>
-    <t>Delivery Staff</t>
-  </si>
-  <si>
-    <t>Managing Staff</t>
+    <t>Status</t>
   </si>
   <si>
     <t>256056</t>
@@ -40,34 +25,10 @@
     <t>test3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>System Bug</t>
-  </si>
-  <si>
-    <t>dqwdwqdqw</t>
-  </si>
-  <si>
-    <t>mervyn</t>
-  </si>
-  <si>
-    <t>doggy</t>
-  </si>
-  <si>
     <t>857052</t>
   </si>
   <si>
     <t>1234</t>
-  </si>
-  <si>
-    <t>Parcel Related</t>
-  </si>
-  <si>
-    <t>cong</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
 </sst>
 </file>
@@ -125,66 +86,21 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
